--- a/src/test_files/318线路列表.xlsx
+++ b/src/test_files/318线路列表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Py_Word_Code\fconversion\src\test_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DEFB7-07FD-4E4D-90A8-F32C8728C7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView yWindow="460" windowWidth="22180" windowHeight="12560"/>
+    <workbookView xWindow="2328" yWindow="3012" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="318线路列表" sheetId="1" r:id="rId1"/>
@@ -1069,14 +1075,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1091,344 +1091,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1436,311 +1112,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1998,29 +1392,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="25.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="27.8285714285714" customWidth="1"/>
-    <col min="7" max="7" width="26.5047619047619" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2098,7 +1492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2124,7 +1518,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2150,7 +1544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2176,7 +1570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2199,7 +1593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2225,7 +1619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2251,7 +1645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2274,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2300,7 +1694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2323,7 +1717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -2346,7 +1740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2369,7 +1763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2395,7 +1789,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2418,7 +1812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -2444,7 +1838,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -2470,7 +1864,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -2496,7 +1890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2522,7 +1916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -2545,7 +1939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -2571,7 +1965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2597,7 +1991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -2623,7 +2017,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2646,7 +2040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -2672,7 +2066,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2695,7 +2089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2721,7 +2115,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2744,7 +2138,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -2770,7 +2164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -2796,7 +2190,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -2819,7 +2213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -2845,7 +2239,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>171</v>
       </c>
@@ -2871,7 +2265,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -2894,7 +2288,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -2917,7 +2311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -2943,7 +2337,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -2966,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -2992,7 +2386,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -3018,7 +2412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -3041,7 +2435,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -3067,7 +2461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>212</v>
       </c>
@@ -3093,7 +2487,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -3119,7 +2513,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>223</v>
       </c>
@@ -3145,7 +2539,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>229</v>
       </c>
@@ -3168,7 +2562,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>230</v>
       </c>
@@ -3194,7 +2588,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -3217,7 +2611,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>241</v>
       </c>
@@ -3243,7 +2637,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>247</v>
       </c>
@@ -3269,7 +2663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -3295,7 +2689,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -3321,7 +2715,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>266</v>
       </c>
@@ -3344,7 +2738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>267</v>
       </c>
@@ -3367,7 +2761,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>272</v>
       </c>
@@ -3393,7 +2787,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>277</v>
       </c>
@@ -3416,7 +2810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>278</v>
       </c>
@@ -3439,7 +2833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -3465,7 +2859,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>289</v>
       </c>
@@ -3488,7 +2882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>290</v>
       </c>
@@ -3514,7 +2908,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>296</v>
       </c>
@@ -3537,7 +2931,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>301</v>
       </c>
@@ -3563,7 +2957,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>307</v>
       </c>
@@ -3586,7 +2980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>308</v>
       </c>
@@ -3609,7 +3003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>313</v>
       </c>
@@ -3635,7 +3029,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>320</v>
       </c>
@@ -3661,7 +3055,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -3687,7 +3081,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -3713,7 +3107,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>338</v>
       </c>
@@ -3736,7 +3130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>339</v>
       </c>
@@ -3762,7 +3156,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -3789,10 +3183,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" display="http://file7niu.aicarmap.com/f-2mufi0l323u_system_stream_klkxtn8o_521_m3u8.aac"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>